--- a/locales/en.xlsx
+++ b/locales/en.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1003">
   <si>
     <t>Key</t>
   </si>
@@ -521,6 +521,18 @@
   </si>
   <si>
     <t>-Submit</t>
+  </si>
+  <si>
+    <t>general.next</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Next</t>
+  </si>
+  <si>
+    <t>general.previous</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Previous</t>
   </si>
   <si>
     <t>general.save</t>
@@ -1703,6 +1715,24 @@
     <t>clientFields.sureToClearForm</t>
   </si>
   <si>
+    <t>clientFields.chooseImageFrom</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Choose an Image from</t>
+  </si>
+  <si>
+    <t>clientFields.gallery</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Gallery</t>
+  </si>
+  <si>
+    <t>clientFields.camera</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Camera</t>
+  </si>
+  <si>
     <t>referralAttr.dateReferred</t>
   </si>
   <si>
@@ -2060,6 +2090,90 @@
     <t>-Wheelchair Repairable</t>
   </si>
   <si>
+    <t>referral.selectReferralServices</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Select referral services</t>
+  </si>
+  <si>
+    <t>referral.referralServices</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Referral Services</t>
+  </si>
+  <si>
+    <t>referral.selectAnotherReferral</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Please select another referral</t>
+  </si>
+  <si>
+    <t>referral.whatTypeOfWheelchair</t>
+  </si>
+  <si>
+    <t>&amp;&amp;What type of wheelchair user?</t>
+  </si>
+  <si>
+    <t>referral.inches</t>
+  </si>
+  <si>
+    <t>&amp;&amp;inches</t>
+  </si>
+  <si>
+    <t>referral.wheelchairInformation</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Wheelchair information</t>
+  </si>
+  <si>
+    <t>referral.choosePhoto</t>
+  </si>
+  <si>
+    <t>&amp;&amp;choose a photo to upload</t>
+  </si>
+  <si>
+    <t>referral.clientHipWidth</t>
+  </si>
+  <si>
+    <t>&amp;&amp;What is the client's hip width?</t>
+  </si>
+  <si>
+    <t>referral.whatCondition</t>
+  </si>
+  <si>
+    <t>&amp;&amp;What condition does the client have?</t>
+  </si>
+  <si>
+    <t>referral.whereIsInjury</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Where is the injury?</t>
+  </si>
+  <si>
+    <t>referral.whatDoesClientNeed</t>
+  </si>
+  <si>
+    <t>&amp;&amp;What does the client need?</t>
+  </si>
+  <si>
+    <t>referral.selectMentalHealthReferral</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Please select mental health referral</t>
+  </si>
+  <si>
+    <t>referral.describeReferral</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Please describe the referral</t>
+  </si>
+  <si>
+    <t>referral.discardNewReferral</t>
+  </si>
+  <si>
+    <t>&amp;&amp;Discard this new referral?</t>
+  </si>
+  <si>
     <t>risks.riskLevel</t>
   </si>
   <si>
@@ -2639,25 +2753,22 @@
     <t>screenNames.viewClient</t>
   </si>
   <si>
-    <t>-View client</t>
-  </si>
-  <si>
     <t>screenNames.viewUser</t>
   </si>
   <si>
-    <t>-View user</t>
+    <t>-View User</t>
   </si>
   <si>
     <t>screenNames.editUser</t>
   </si>
   <si>
-    <t>-Edit user</t>
+    <t>-Edit User</t>
   </si>
   <si>
     <t>screenNames.newUser</t>
   </si>
   <si>
-    <t>-New user</t>
+    <t>-New User</t>
   </si>
   <si>
     <t>screenNames.newVisit</t>
@@ -2666,13 +2777,10 @@
     <t>screenNames.newReferral</t>
   </si>
   <si>
-    <t>-New referral</t>
-  </si>
-  <si>
     <t>screenNames.newBaselineSurvey</t>
   </si>
   <si>
-    <t>-New baseline survey</t>
+    <t>-New Baseline Survey</t>
   </si>
   <si>
     <t>screenNames.synchronization</t>
@@ -2798,127 +2906,121 @@
     <t>sync.sureResetLocalDB</t>
   </si>
   <si>
-    <t>&amp;&amp;Are you sure you want to reset local database</t>
+    <t>-Are you sure you want to reset local database</t>
   </si>
   <si>
     <t>sync.reset</t>
   </si>
   <si>
-    <t>&amp;&amp;Reset</t>
+    <t>-Reset</t>
   </si>
   <si>
     <t>sync.databaseReset</t>
   </si>
   <si>
-    <t>&amp;&amp;Database Reset</t>
+    <t>-Database Reset</t>
   </si>
   <si>
     <t>sync.syncComplete</t>
   </si>
   <si>
-    <t>&amp;&amp;Synchronization Complete</t>
+    <t>-Synchronization Complete</t>
   </si>
   <si>
     <t>sync.syncFailed</t>
   </si>
   <si>
-    <t>&amp;&amp;Synchronization Failed</t>
+    <t>-Synchronization Failed</t>
   </si>
   <si>
     <t>sync.database</t>
   </si>
   <si>
-    <t>&amp;&amp;Database</t>
+    <t>-Database</t>
   </si>
   <si>
     <t>sync.serverSync</t>
   </si>
   <si>
-    <t>&amp;&amp;Server Sync</t>
+    <t>-Server Sync</t>
   </si>
   <si>
     <t>sync.clearLocal</t>
   </si>
   <si>
-    <t>&amp;&amp;Clear Local</t>
+    <t>-Clear Local</t>
   </si>
   <si>
     <t>sync.syncStatistics</t>
   </si>
   <si>
-    <t>&amp;&amp;Sync Statistics</t>
+    <t>-Sync Statistics</t>
   </si>
   <si>
     <t>sync.lastPullAt</t>
   </si>
   <si>
-    <t>&amp;&amp;Last Pulled at:</t>
+    <t>-Last Pulled at:</t>
   </si>
   <si>
     <t>sync.localChanges</t>
   </si>
   <si>
-    <t>&amp;&amp;Local Changes:</t>
+    <t>-Local Changes:</t>
   </si>
   <si>
     <t>sync.remoteChanges</t>
   </si>
   <si>
-    <t>&amp;&amp;Remote Changes:</t>
+    <t>-Remote Changes:</t>
   </si>
   <si>
     <t>sync.versionName</t>
   </si>
   <si>
-    <t>&amp;&amp;Version Name:</t>
+    <t>-Version Name:</t>
   </si>
   <si>
     <t>sync.syncSettings</t>
   </si>
   <si>
-    <t>&amp;&amp;Sync Settings</t>
+    <t>-Sync Settings</t>
   </si>
   <si>
     <t>sync.autoSyncing</t>
   </si>
   <si>
-    <t>&amp;&amp;Automatic Syncing</t>
+    <t>-Automatic Syncing</t>
   </si>
   <si>
     <t>sync.syncOverCellular</t>
   </si>
   <si>
-    <t>&amp;&amp;Sync over Cellular</t>
+    <t>-Sync over Cellular</t>
   </si>
   <si>
     <t>sync.success</t>
   </si>
   <si>
-    <t>&amp;&amp;success</t>
+    <t>-success</t>
   </si>
   <si>
     <t>sync.failed</t>
   </si>
   <si>
-    <t>&amp;&amp;failed</t>
+    <t>-failed</t>
   </si>
   <si>
     <t>sync.neverSynced</t>
   </si>
   <si>
-    <t>&amp;&amp;Never Synced</t>
+    <t>-Never Synced</t>
   </si>
   <si>
     <t>sync.downloadNewVersion</t>
   </si>
   <si>
-    <t>&amp;&amp;Please download the latest update for HHA CBR from the Google Play Store.</t>
-  </si>
-  <si>
-    <t>sync.x</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>-Please download the latest update for HHA CBR from the Google Play Store.</t>
   </si>
   <si>
     <t>zone.zone</t>
@@ -3298,7 +3400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B535"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="50" customWidth="1"/>
@@ -4637,23 +4739,23 @@
         <v>332</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4685,39 +4787,39 @@
         <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,23 +4851,23 @@
         <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,23 +4979,23 @@
         <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>237</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,23 +5003,23 @@
         <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>179</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>397</v>
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4973,23 +5075,23 @@
         <v>410</v>
       </c>
       <c r="B209" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B210" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B211" t="s">
-        <v>414</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,23 +5123,23 @@
         <v>421</v>
       </c>
       <c r="B215" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B216" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B217" t="s">
-        <v>425</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -5165,23 +5267,23 @@
         <v>456</v>
       </c>
       <c r="B233" t="s">
-        <v>275</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B234" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B235" t="s">
-        <v>460</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -5253,47 +5355,47 @@
         <v>477</v>
       </c>
       <c r="B244" t="s">
-        <v>199</v>
+        <v>478</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B245" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B246" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B247" t="s">
-        <v>255</v>
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B248" t="s">
-        <v>483</v>
+        <v>161</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B249" t="s">
-        <v>485</v>
+        <v>259</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -5485,23 +5587,23 @@
         <v>532</v>
       </c>
       <c r="B273" t="s">
-        <v>348</v>
+        <v>533</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B274" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B275" t="s">
-        <v>536</v>
+        <v>352</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,23 +5707,23 @@
         <v>561</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B289" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B290" t="s">
-        <v>565</v>
+        <v>379</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,47 +5747,47 @@
         <v>570</v>
       </c>
       <c r="B293" t="s">
-        <v>205</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B294" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B295" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B296" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B297" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B298" t="s">
-        <v>580</v>
+        <v>209</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5733,55 +5835,55 @@
         <v>591</v>
       </c>
       <c r="B304" t="s">
-        <v>237</v>
+        <v>592</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B305" t="s">
-        <v>207</v>
+        <v>594</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B306" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B307" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B308" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B309" t="s">
-        <v>600</v>
+        <v>241</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B310" t="s">
-        <v>602</v>
+        <v>211</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,44 +5891,44 @@
         <v>603</v>
       </c>
       <c r="B311" t="s">
-        <v>209</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B312" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B313" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B314" t="s">
-        <v>211</v>
+        <v>610</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B315" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B316" t="s">
         <v>213</v>
@@ -5834,66 +5936,66 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B317" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B318" t="s">
-        <v>187</v>
+        <v>617</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B319" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B321" t="s">
-        <v>617</v>
+        <v>217</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B322" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B323" t="s">
-        <v>621</v>
+        <v>191</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B324" t="s">
-        <v>623</v>
+        <v>283</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -6013,95 +6115,95 @@
         <v>652</v>
       </c>
       <c r="B339" t="s">
-        <v>93</v>
+        <v>653</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B340" t="s">
-        <v>95</v>
+        <v>655</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B341" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B342" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B343" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B344" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B345" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B346" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B347" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B348" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B349" t="s">
-        <v>669</v>
+        <v>89</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B350" t="s">
-        <v>671</v>
+        <v>105</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,439 +6227,439 @@
         <v>676</v>
       </c>
       <c r="B353" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B354" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B355" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B356" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B357" t="s">
-        <v>189</v>
+        <v>685</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B358" t="s">
-        <v>191</v>
+        <v>604</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B359" t="s">
-        <v>151</v>
+        <v>688</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B360" t="s">
-        <v>367</v>
+        <v>690</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B361" t="s">
-        <v>369</v>
+        <v>692</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B362" t="s">
-        <v>371</v>
+        <v>694</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B363" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B364" t="s">
-        <v>179</v>
+        <v>698</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B365" t="s">
-        <v>181</v>
+        <v>700</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B366" t="s">
-        <v>183</v>
+        <v>702</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B367" t="s">
-        <v>185</v>
+        <v>704</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B368" t="s">
-        <v>279</v>
+        <v>706</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="B369" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="B370" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="B371" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B372" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="B373" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="B374" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="B375" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="B376" t="s">
-        <v>711</v>
+        <v>193</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="B377" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B378" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B379" t="s">
-        <v>213</v>
+        <v>371</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B380" t="s">
-        <v>716</v>
+        <v>373</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="B381" t="s">
-        <v>718</v>
+        <v>375</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B382" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B383" t="s">
-        <v>722</v>
+        <v>183</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B384" t="s">
-        <v>724</v>
+        <v>185</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B385" t="s">
-        <v>726</v>
+        <v>187</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B386" t="s">
-        <v>728</v>
+        <v>189</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B387" t="s">
-        <v>730</v>
+        <v>283</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B388" t="s">
-        <v>105</v>
+        <v>735</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B389" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B390" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B391" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B392" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B393" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B394" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B395" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B396" t="s">
-        <v>747</v>
+        <v>211</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B397" t="s">
-        <v>749</v>
+        <v>215</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B398" t="s">
-        <v>751</v>
+        <v>217</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B399" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B400" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B401" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B402" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B403" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B404" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B405" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B406" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B407" t="s">
-        <v>769</v>
+        <v>105</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -6637,591 +6739,591 @@
         <v>788</v>
       </c>
       <c r="B417" t="s">
-        <v>466</v>
+        <v>789</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B418" t="s">
-        <v>447</v>
+        <v>791</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B419" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B420" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B421" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B422" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B423" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B424" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B425" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B426" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B427" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B428" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B429" t="s">
-        <v>350</v>
+        <v>813</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B430" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B431" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B432" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B433" t="s">
-        <v>237</v>
+        <v>821</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B434" t="s">
-        <v>199</v>
+        <v>823</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B435" t="s">
-        <v>161</v>
+        <v>825</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B436" t="s">
-        <v>179</v>
+        <v>470</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B437" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B438" t="s">
-        <v>183</v>
+        <v>829</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B439" t="s">
-        <v>185</v>
+        <v>831</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B440" t="s">
-        <v>187</v>
+        <v>833</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="B441" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="B442" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="B443" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="B444" t="s">
-        <v>203</v>
+        <v>841</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="B445" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="B446" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="B447" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="B448" t="s">
-        <v>839</v>
+        <v>354</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B449" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="B450" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="B451" t="s">
-        <v>213</v>
+        <v>854</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="B452" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="B453" t="s">
-        <v>847</v>
+        <v>203</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="B454" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="B455" t="s">
-        <v>850</v>
+        <v>183</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="B456" t="s">
-        <v>852</v>
+        <v>185</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="B457" t="s">
-        <v>854</v>
+        <v>187</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="B458" t="s">
-        <v>856</v>
+        <v>189</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B459" t="s">
-        <v>858</v>
+        <v>191</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B460" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B461" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B462" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B463" t="s">
-        <v>866</v>
+        <v>207</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B464" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B465" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B466" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B467" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B468" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B469" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B470" t="s">
-        <v>880</v>
+        <v>217</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B471" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B472" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B473" t="s">
-        <v>885</v>
+        <v>211</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B474" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B475" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B476" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B477" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B478" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B479" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B480" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B481" t="s">
-        <v>493</v>
+        <v>902</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B482" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B483" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B484" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B485" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B486" t="s">
-        <v>910</v>
+        <v>123</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B487" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B488" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B489" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B490" t="s">
-        <v>918</v>
+        <v>133</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -7229,7 +7331,7 @@
         <v>919</v>
       </c>
       <c r="B491" t="s">
-        <v>195</v>
+        <v>575</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -7237,151 +7339,151 @@
         <v>920</v>
       </c>
       <c r="B492" t="s">
-        <v>193</v>
+        <v>921</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B493" t="s">
-        <v>81</v>
+        <v>923</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B494" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B495" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B496" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B497" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B498" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B499" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B500" t="s">
-        <v>935</v>
+        <v>497</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B501" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B502" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B503" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B504" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B505" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B506" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B507" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B508" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B509" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B510" t="s">
-        <v>955</v>
+        <v>199</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -7389,54 +7491,198 @@
         <v>956</v>
       </c>
       <c r="B511" t="s">
-        <v>957</v>
+        <v>197</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B512" t="s">
-        <v>959</v>
+        <v>81</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B513" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B514" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B515" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B516" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>966</v>
+      </c>
+      <c r="B517" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
         <v>968</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B518" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>970</v>
+      </c>
+      <c r="B519" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>972</v>
+      </c>
+      <c r="B520" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>974</v>
+      </c>
+      <c r="B521" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>976</v>
+      </c>
+      <c r="B522" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>978</v>
+      </c>
+      <c r="B523" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>980</v>
+      </c>
+      <c r="B524" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>982</v>
+      </c>
+      <c r="B525" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>984</v>
+      </c>
+      <c r="B526" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>986</v>
+      </c>
+      <c r="B527" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>988</v>
+      </c>
+      <c r="B528" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>990</v>
+      </c>
+      <c r="B529" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>992</v>
+      </c>
+      <c r="B530" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>994</v>
+      </c>
+      <c r="B531" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>996</v>
+      </c>
+      <c r="B532" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>998</v>
+      </c>
+      <c r="B533" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B535" t="s">
         <v>161</v>
       </c>
     </row>
